--- a/src/modelinput/gen_tech_2050_.xlsx
+++ b/src/modelinput/gen_tech_2050_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/prianto_chalmers_se/Documents/Documents/99. RegModel/modelinput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="512" documentId="8_{CFF00F47-7BB3-4B95-81F1-C9D66D6C6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5F4B95D-BA33-48C0-B2C8-6A8936E0B5D7}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{CFF00F47-7BB3-4B95-81F1-C9D66D6C6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6087243E-2F3D-4D1C-94E2-E0E192156849}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CDD20ED2-A9DA-4A80-92E5-898A75D04877}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDD20ED2-A9DA-4A80-92E5-898A75D04877}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_tech_" sheetId="1" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V2" t="s">
         <v>42</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V4" t="s">
         <v>44</v>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>45</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
         <v>47</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V8" t="s">
         <v>50</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>53</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
         <v>55</v>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V11" t="s">
         <v>61</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V12" t="s">
         <v>65</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V13" t="s">
         <v>68</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V14" t="s">
         <v>71</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V15" t="s">
         <v>74</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V16" t="s">
         <v>97</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V17" t="s">
         <v>80</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V18" t="s">
         <v>84</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V19" t="s">
         <v>89</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V20" t="s">
         <v>92</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V21" t="s">
         <v>95</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V22" t="s">
         <v>100</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V23" t="s">
         <v>104</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="V24" t="s">
         <v>107</v>
